--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr1_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr1_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="15.77734375" customWidth="true"/>
-    <col min="4" max="4" width="15.77734375" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
+    <col min="3" max="3" width="14.24609375" customWidth="true"/>
+    <col min="4" max="4" width="16.24609375" customWidth="true"/>
+    <col min="5" max="5" width="15.1796875" customWidth="true"/>
     <col min="6" max="6" width="15.77734375" customWidth="true"/>
-    <col min="7" max="7" width="15.77734375" customWidth="true"/>
+    <col min="7" max="7" width="16.24609375" customWidth="true"/>
     <col min="8" max="8" width="15.77734375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.77734375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="15.77734375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29312022665814025</v>
+        <v>0.28479073493767426</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29311913311272036</v>
+        <v>0.28516896475906534</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-7.9951248442865024e-07</v>
+        <v>0.00038327333296243676</v>
       </c>
       <c r="E3" s="0">
-        <v>-3.1052927102862761e-08</v>
+        <v>8.4687269995056045e-07</v>
       </c>
       <c r="F3" s="0">
-        <v>-1.9104963715092265e-07</v>
+        <v>-2.658073838657867e-06</v>
       </c>
       <c r="G3" s="0">
-        <v>-7.1989176567494764e-08</v>
+        <v>5.2703292098004618e-05</v>
       </c>
       <c r="H3" s="0">
-        <v>-4.8313835097535829e-09</v>
+        <v>3.7227566040522996e-07</v>
       </c>
       <c r="I3" s="0">
-        <v>4.5767361595423651e-09</v>
+        <v>-5.6187805229379732e-05</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>3.1345270823379678e-10</v>
+        <v>-1.2007296168459192e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29317114808553779</v>
+        <v>0.30611946346435853</v>
       </c>
       <c r="C4" s="0">
-        <v>5.1989558942329873e-05</v>
+        <v>0.021574495260221076</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-9.3952210259237828e-11</v>
+        <v>2.0607073894728208e-08</v>
       </c>
       <c r="F4" s="0">
-        <v>2.9209288766664403e-08</v>
+        <v>1.9269980362034825e-08</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-6.9546712690120659e-11</v>
+        <v>-1.2642026694049435e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-3.5398288253199098e-09</v>
+        <v>-0.00061137815301278342</v>
       </c>
       <c r="J4" s="0">
-        <v>-5.1787751234189737e-11</v>
+        <v>2.9952509501591023e-08</v>
       </c>
       <c r="K4" s="0">
-        <v>-4.0298153702877926e-11</v>
+        <v>-4.6204784831527235e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29318723138362246</v>
+        <v>0.30522122961064058</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>1.6262270551420193e-05</v>
+        <v>-0.00044047385038365372</v>
       </c>
       <c r="E5" s="0">
-        <v>8.3944850797818123e-08</v>
+        <v>4.5081107225920069e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>6.0663617062406948e-07</v>
+        <v>-9.3933800363868303e-05</v>
       </c>
       <c r="G5" s="0">
-        <v>3.728237832811578e-07</v>
+        <v>-0.00016193078460437584</v>
       </c>
       <c r="H5" s="0">
-        <v>1.0839076643370065e-09</v>
+        <v>-1.1637850523005449e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-1.2421022792679092e-06</v>
+        <v>-0.00021853145394825038</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-1.3588998259983498e-09</v>
+        <v>-1.6807221120740401e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29307950078289058</v>
+        <v>0.28544939882995934</v>
       </c>
       <c r="C6" s="0">
-        <v>-9.0112022854390046e-05</v>
+        <v>-0.024352270744014658</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>3.5674679452217103e-10</v>
+        <v>4.8848735503518981e-08</v>
       </c>
       <c r="F6" s="0">
-        <v>-3.4627661000329685e-07</v>
+        <v>-3.9932586282657916e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.7814059606729091e-07</v>
+        <v>-7.480998171547746e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-1.7094928669912972e-05</v>
+        <v>0.0046949112286848666</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>4.1125169936151451e-10</v>
+        <v>2.2245391118058677e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29290480286677156</v>
+        <v>0.28878134924881865</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.00016789116104064646</v>
+        <v>0.00071494852074631117</v>
       </c>
       <c r="E7" s="0">
-        <v>-1.6221030594575732e-06</v>
+        <v>-0.00016565419613413904</v>
       </c>
       <c r="F7" s="0">
-        <v>-1.6960286043008521e-06</v>
+        <v>-0.00010143226957800398</v>
       </c>
       <c r="G7" s="0">
-        <v>1.5849883106189018e-06</v>
+        <v>0.0028846902094975834</v>
       </c>
       <c r="H7" s="0">
-        <v>3.8462476373584103e-08</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-5.1436550984145345e-06</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>3.1580896786564949e-08</v>
+        <v>-6.0184567246546194e-07</v>
       </c>
     </row>
     <row r="8">
